--- a/crude_types.xlsx
+++ b/crude_types.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="151" documentId="8_{A3CD0974-3A6A-4ED0-90C6-134FAC191808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D47FAB2F-E602-40BE-8818-117E433794A2}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{755F671C-4ADB-4DF5-B6F4-96A7E9ADD475}"/>
+    <workbookView minimized="1" xWindow="31575" yWindow="705" windowWidth="21600" windowHeight="11295" xr2:uid="{755F671C-4ADB-4DF5-B6F4-96A7E9ADD475}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -215,13 +215,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -560,19 +559,19 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:K10"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="31.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="31" bestFit="1" customWidth="1"/>
@@ -641,7 +640,7 @@
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="3" t="str">
+      <c r="B4" t="str">
         <f>"'"&amp;MID(A4,1,FIND("(",A4)-2)&amp;"':"&amp;"'"&amp;MID(A4,FIND("(",A4)+1,FIND(")",A4)-FIND("(",A4)-1)&amp;"',"</f>
         <v>'Hardisty Light':'MBL',</v>
       </c>
@@ -651,7 +650,7 @@
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="3" t="str">
+      <c r="E4" t="str">
         <f>"'"&amp;MID(D4,1,FIND("(",D4)-2)&amp;"':"&amp;"'"&amp;MID(D4,FIND("(",D4)+1,FIND(")",D4)-FIND("(",D4)-1)&amp;"',"</f>
         <v>'Federated':'FD',</v>
       </c>
@@ -661,7 +660,7 @@
       <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="3" t="str">
+      <c r="H4" t="str">
         <f>"'"&amp;MID(G4,1,FIND("(",G4)-2)&amp;"':"&amp;"'"&amp;MID(G4,FIND("(",G4)+1,FIND(")",G4)-FIND("(",G4)-1)&amp;"',"</f>
         <v>'Bow River North':'BRN',</v>
       </c>
@@ -671,7 +670,7 @@
       <c r="J4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="3" t="str">
+      <c r="K4" t="str">
         <f>"'"&amp;MID(J4,1,FIND("(",J4)-2)&amp;"':"&amp;"'"&amp;MID(J4,FIND("(",J4)+1,FIND(")",J4)-FIND("(",J4)-1)&amp;"',"</f>
         <v>'CNRL Light Sweet Synthetic':'CNS',</v>
       </c>
@@ -683,7 +682,7 @@
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="3" t="str">
+      <c r="B5" t="str">
         <f t="shared" ref="B5:B12" si="0">"'"&amp;MID(A5,1,FIND("(",A5)-2)&amp;"':"&amp;"'"&amp;MID(A5,FIND("(",A5)+1,FIND(")",A5)-FIND("(",A5)-1)&amp;"',"</f>
         <v>'Medium Gibson Sour':'MGS',</v>
       </c>
@@ -693,7 +692,7 @@
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="3" t="str">
+      <c r="E5" t="str">
         <f t="shared" ref="E5:E10" si="1">"'"&amp;MID(D5,1,FIND("(",D5)-2)&amp;"':"&amp;"'"&amp;MID(D5,FIND("(",D5)+1,FIND(")",D5)-FIND("(",D5)-1)&amp;"',"</f>
         <v>'Light Smiley':'MSY',</v>
       </c>
@@ -703,7 +702,7 @@
       <c r="G5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="3" t="str">
+      <c r="H5" t="str">
         <f t="shared" ref="H5:H13" si="2">"'"&amp;MID(G5,1,FIND("(",G5)-2)&amp;"':"&amp;"'"&amp;MID(G5,FIND("(",G5)+1,FIND(")",G5)-FIND("(",G5)-1)&amp;"',"</f>
         <v>'Bow River South':'BRS',</v>
       </c>
@@ -713,7 +712,7 @@
       <c r="J5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K5" s="3" t="str">
+      <c r="K5" t="str">
         <f t="shared" ref="K5:K10" si="3">"'"&amp;MID(J5,1,FIND("(",J5)-2)&amp;"':"&amp;"'"&amp;MID(J5,FIND("(",J5)+1,FIND(")",J5)-FIND("(",J5)-1)&amp;"',"</f>
         <v>'Husky Synthetic Blend':'HSB',</v>
       </c>
@@ -725,7 +724,7 @@
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="3" t="str">
+      <c r="B6" t="str">
         <f t="shared" si="0"/>
         <v>'Midale':'MSM',</v>
       </c>
@@ -735,7 +734,7 @@
       <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="3" t="str">
+      <c r="E6" t="str">
         <f t="shared" si="1"/>
         <v>'Peace':'MPR',</v>
       </c>
@@ -745,7 +744,7 @@
       <c r="G6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="3" t="str">
+      <c r="H6" t="str">
         <f t="shared" si="2"/>
         <v>'Fosterton':'F',</v>
       </c>
@@ -755,7 +754,7 @@
       <c r="J6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="3" t="str">
+      <c r="K6" t="str">
         <f t="shared" si="3"/>
         <v>'Long Lake Light Synthetic':'PSC',</v>
       </c>
@@ -767,7 +766,7 @@
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="3" t="str">
+      <c r="B7" t="str">
         <f t="shared" si="0"/>
         <v>'Peace Pipe Sour':'SPR',</v>
       </c>
@@ -777,7 +776,7 @@
       <c r="D7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="3" t="str">
+      <c r="E7" t="str">
         <f t="shared" si="1"/>
         <v>'Pembina':'P',</v>
       </c>
@@ -787,7 +786,7 @@
       <c r="G7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="3" t="str">
+      <c r="H7" t="str">
         <f t="shared" si="2"/>
         <v>'Lloyd Blend':'LLB',</v>
       </c>
@@ -797,7 +796,7 @@
       <c r="J7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K7" s="3" t="str">
+      <c r="K7" t="str">
         <f t="shared" si="3"/>
         <v>'Premium Albian Synthetic':'PAS',</v>
       </c>
@@ -809,7 +808,7 @@
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="3" t="str">
+      <c r="B8" t="str">
         <f t="shared" si="0"/>
         <v>'BC Light':'BCL',</v>
       </c>
@@ -819,7 +818,7 @@
       <c r="D8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="3" t="str">
+      <c r="E8" t="str">
         <f t="shared" si="1"/>
         <v>'Secure Sask Light':'MSE',</v>
       </c>
@@ -829,7 +828,7 @@
       <c r="G8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="3" t="str">
+      <c r="H8" t="str">
         <f t="shared" si="2"/>
         <v>'Lloyd Kerrobert':'LLK',</v>
       </c>
@@ -839,7 +838,7 @@
       <c r="J8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="3" t="str">
+      <c r="K8" t="str">
         <f t="shared" si="3"/>
         <v>'Shell Synthetic Light':'SSX',</v>
       </c>
@@ -851,7 +850,7 @@
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="3" t="str">
+      <c r="B9" t="str">
         <f t="shared" si="0"/>
         <v>'Boundary Lake':'BDY',</v>
       </c>
@@ -861,7 +860,7 @@
       <c r="D9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="3" t="str">
+      <c r="E9" t="str">
         <f t="shared" si="1"/>
         <v>'Mixed Sweet Blend':'MSW',</v>
       </c>
@@ -871,7 +870,7 @@
       <c r="G9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="3" t="str">
+      <c r="H9" t="str">
         <f t="shared" si="2"/>
         <v>'Seal Heavy':'SH',</v>
       </c>
@@ -881,7 +880,7 @@
       <c r="J9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K9" s="3" t="str">
+      <c r="K9" t="str">
         <f t="shared" si="3"/>
         <v>'Suncor Synthetic A':'OSA',</v>
       </c>
@@ -893,7 +892,7 @@
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="3" t="str">
+      <c r="B10" t="str">
         <f t="shared" si="0"/>
         <v>'Koch Alberta':'CAL',</v>
       </c>
@@ -903,7 +902,7 @@
       <c r="D10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="3" t="str">
+      <c r="E10" t="str">
         <f t="shared" si="1"/>
         <v>'Rainbow':'RA',</v>
       </c>
@@ -913,7 +912,7 @@
       <c r="G10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="3" t="str">
+      <c r="H10" t="str">
         <f t="shared" si="2"/>
         <v>'Smiley-Coleville':'SC',</v>
       </c>
@@ -923,7 +922,7 @@
       <c r="J10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K10" s="3" t="str">
+      <c r="K10" t="str">
         <f t="shared" si="3"/>
         <v>'Syncrude Sweet Premium':'SSP',</v>
       </c>
@@ -935,7 +934,7 @@
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="3" t="str">
+      <c r="B11" t="str">
         <f t="shared" si="0"/>
         <v>'Moose Jaw Tops':'MJT',</v>
       </c>
@@ -945,20 +944,19 @@
       <c r="G11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="3" t="str">
+      <c r="H11" t="str">
         <f t="shared" si="2"/>
         <v>'Wabasca Heavy':'WH',</v>
       </c>
       <c r="I11" s="2">
         <v>36894</v>
       </c>
-      <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="3" t="str">
+      <c r="B12" t="str">
         <f t="shared" si="0"/>
         <v>'Pembina Light Sour':'PLS',</v>
       </c>
@@ -968,27 +966,25 @@
       <c r="G12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="3" t="str">
+      <c r="H12" t="str">
         <f t="shared" si="2"/>
         <v>'Western Canadian Blend':'WCB',</v>
       </c>
       <c r="I12" s="2">
         <v>37114</v>
       </c>
-      <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="3" t="str">
+      <c r="H13" t="str">
         <f t="shared" si="2"/>
         <v>'Western Canadian Select':'WCS',</v>
       </c>
       <c r="I13" s="2">
         <v>38356</v>
       </c>
-      <c r="K13" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
